--- a/Assets/600895.ss.xlsx
+++ b/Assets/600895.ss.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,19 +481,19 @@
         <v>45170</v>
       </c>
       <c r="B2" t="n">
-        <v>16.57999992370605</v>
+        <v>16.58</v>
       </c>
       <c r="C2" t="n">
-        <v>16.78000068664551</v>
+        <v>16.78</v>
       </c>
       <c r="D2" t="n">
-        <v>15.55000019073486</v>
+        <v>15.55</v>
       </c>
       <c r="E2" t="n">
-        <v>15.68000030517578</v>
+        <v>15.68</v>
       </c>
       <c r="F2" t="n">
-        <v>15.68000030517578</v>
+        <v>15.68</v>
       </c>
       <c r="G2" t="n">
         <v>55569090</v>
@@ -504,19 +504,19 @@
         <v>45173</v>
       </c>
       <c r="B3" t="n">
-        <v>15.84000015258789</v>
+        <v>15.84</v>
       </c>
       <c r="C3" t="n">
-        <v>16.02000045776367</v>
+        <v>16.02</v>
       </c>
       <c r="D3" t="n">
-        <v>15.63000011444092</v>
+        <v>15.63</v>
       </c>
       <c r="E3" t="n">
-        <v>15.94999980926514</v>
+        <v>15.95</v>
       </c>
       <c r="F3" t="n">
-        <v>15.94999980926514</v>
+        <v>15.95</v>
       </c>
       <c r="G3" t="n">
         <v>29082750</v>
@@ -527,19 +527,19 @@
         <v>45174</v>
       </c>
       <c r="B4" t="n">
-        <v>15.94999980926514</v>
+        <v>15.95</v>
       </c>
       <c r="C4" t="n">
         <v>16.75</v>
       </c>
       <c r="D4" t="n">
-        <v>15.69999980926514</v>
+        <v>15.7</v>
       </c>
       <c r="E4" t="n">
-        <v>16.21999931335449</v>
+        <v>16.22</v>
       </c>
       <c r="F4" t="n">
-        <v>16.21999931335449</v>
+        <v>16.22</v>
       </c>
       <c r="G4" t="n">
         <v>54590210</v>
@@ -550,19 +550,19 @@
         <v>45175</v>
       </c>
       <c r="B5" t="n">
-        <v>16.23999977111816</v>
+        <v>16.24</v>
       </c>
       <c r="C5" t="n">
-        <v>17.84000015258789</v>
+        <v>17.84</v>
       </c>
       <c r="D5" t="n">
-        <v>16.18000030517578</v>
+        <v>16.18</v>
       </c>
       <c r="E5" t="n">
-        <v>17.84000015258789</v>
+        <v>17.84</v>
       </c>
       <c r="F5" t="n">
-        <v>17.84000015258789</v>
+        <v>17.84</v>
       </c>
       <c r="G5" t="n">
         <v>72075436</v>
@@ -573,19 +573,19 @@
         <v>45176</v>
       </c>
       <c r="B6" t="n">
-        <v>19.19000053405762</v>
+        <v>19.19</v>
       </c>
       <c r="C6" t="n">
-        <v>19.6200008392334</v>
+        <v>19.62</v>
       </c>
       <c r="D6" t="n">
-        <v>18.52000045776367</v>
+        <v>18.52</v>
       </c>
       <c r="E6" t="n">
-        <v>19.6200008392334</v>
+        <v>19.62</v>
       </c>
       <c r="F6" t="n">
-        <v>19.6200008392334</v>
+        <v>19.62</v>
       </c>
       <c r="G6" t="n">
         <v>124433543</v>
@@ -596,19 +596,19 @@
         <v>45177</v>
       </c>
       <c r="B7" t="n">
-        <v>20.70000076293945</v>
+        <v>20.7</v>
       </c>
       <c r="C7" t="n">
-        <v>21.57999992370605</v>
+        <v>21.58</v>
       </c>
       <c r="D7" t="n">
-        <v>20.70000076293945</v>
+        <v>20.7</v>
       </c>
       <c r="E7" t="n">
-        <v>21.57999992370605</v>
+        <v>21.58</v>
       </c>
       <c r="F7" t="n">
-        <v>21.57999992370605</v>
+        <v>21.58</v>
       </c>
       <c r="G7" t="n">
         <v>61082752</v>
@@ -619,19 +619,19 @@
         <v>45180</v>
       </c>
       <c r="B8" t="n">
-        <v>23.68000030517578</v>
+        <v>23.68</v>
       </c>
       <c r="C8" t="n">
-        <v>23.73999977111816</v>
+        <v>23.74</v>
       </c>
       <c r="D8" t="n">
-        <v>22.21999931335449</v>
+        <v>22.22</v>
       </c>
       <c r="E8" t="n">
-        <v>23.73999977111816</v>
+        <v>23.74</v>
       </c>
       <c r="F8" t="n">
-        <v>23.73999977111816</v>
+        <v>23.74</v>
       </c>
       <c r="G8" t="n">
         <v>282015669</v>
@@ -642,19 +642,19 @@
         <v>45181</v>
       </c>
       <c r="B9" t="n">
-        <v>24.42000007629395</v>
+        <v>24.42</v>
       </c>
       <c r="C9" t="n">
-        <v>25.57999992370605</v>
+        <v>25.58</v>
       </c>
       <c r="D9" t="n">
-        <v>23.73999977111816</v>
+        <v>23.74</v>
       </c>
       <c r="E9" t="n">
-        <v>24.57999992370605</v>
+        <v>24.58</v>
       </c>
       <c r="F9" t="n">
-        <v>24.57999992370605</v>
+        <v>24.58</v>
       </c>
       <c r="G9" t="n">
         <v>285611606</v>
@@ -665,13 +665,13 @@
         <v>45182</v>
       </c>
       <c r="B10" t="n">
-        <v>24.1200008392334</v>
+        <v>24.12</v>
       </c>
       <c r="C10" t="n">
-        <v>24.85000038146973</v>
+        <v>24.85</v>
       </c>
       <c r="D10" t="n">
-        <v>23.47999954223633</v>
+        <v>23.48</v>
       </c>
       <c r="E10" t="n">
         <v>24.75</v>
@@ -688,19 +688,19 @@
         <v>45183</v>
       </c>
       <c r="B11" t="n">
-        <v>23.94000053405762</v>
+        <v>23.94</v>
       </c>
       <c r="C11" t="n">
-        <v>24.29999923706055</v>
+        <v>24.3</v>
       </c>
       <c r="D11" t="n">
-        <v>23.26000022888184</v>
+        <v>23.26</v>
       </c>
       <c r="E11" t="n">
-        <v>23.84000015258789</v>
+        <v>23.84</v>
       </c>
       <c r="F11" t="n">
-        <v>23.84000015258789</v>
+        <v>23.84</v>
       </c>
       <c r="G11" t="n">
         <v>198592517</v>
@@ -711,19 +711,19 @@
         <v>45184</v>
       </c>
       <c r="B12" t="n">
-        <v>23.40999984741211</v>
+        <v>23.41</v>
       </c>
       <c r="C12" t="n">
-        <v>26.21999931335449</v>
+        <v>26.22</v>
       </c>
       <c r="D12" t="n">
-        <v>22.79999923706055</v>
+        <v>22.8</v>
       </c>
       <c r="E12" t="n">
-        <v>26.21999931335449</v>
+        <v>26.22</v>
       </c>
       <c r="F12" t="n">
-        <v>26.21999931335449</v>
+        <v>26.22</v>
       </c>
       <c r="G12" t="n">
         <v>291340179</v>
@@ -734,19 +734,19 @@
         <v>45187</v>
       </c>
       <c r="B13" t="n">
-        <v>25.01000022888184</v>
+        <v>25.01</v>
       </c>
       <c r="C13" t="n">
-        <v>25.21999931335449</v>
+        <v>25.22</v>
       </c>
       <c r="D13" t="n">
-        <v>23.60000038146973</v>
+        <v>23.6</v>
       </c>
       <c r="E13" t="n">
-        <v>23.85000038146973</v>
+        <v>23.85</v>
       </c>
       <c r="F13" t="n">
-        <v>23.85000038146973</v>
+        <v>23.85</v>
       </c>
       <c r="G13" t="n">
         <v>244855989</v>
@@ -757,19 +757,19 @@
         <v>45188</v>
       </c>
       <c r="B14" t="n">
-        <v>23.45999908447266</v>
+        <v>23.46</v>
       </c>
       <c r="C14" t="n">
-        <v>23.93000030517578</v>
+        <v>23.93</v>
       </c>
       <c r="D14" t="n">
-        <v>22.34000015258789</v>
+        <v>22.34</v>
       </c>
       <c r="E14" t="n">
-        <v>22.59000015258789</v>
+        <v>22.59</v>
       </c>
       <c r="F14" t="n">
-        <v>22.59000015258789</v>
+        <v>22.59</v>
       </c>
       <c r="G14" t="n">
         <v>188789496</v>
@@ -780,19 +780,19 @@
         <v>45189</v>
       </c>
       <c r="B15" t="n">
-        <v>22.04999923706055</v>
+        <v>22.05</v>
       </c>
       <c r="C15" t="n">
-        <v>22.97999954223633</v>
+        <v>22.98</v>
       </c>
       <c r="D15" t="n">
-        <v>21.17000007629395</v>
+        <v>21.17</v>
       </c>
       <c r="E15" t="n">
-        <v>21.79999923706055</v>
+        <v>21.8</v>
       </c>
       <c r="F15" t="n">
-        <v>21.79999923706055</v>
+        <v>21.8</v>
       </c>
       <c r="G15" t="n">
         <v>208764512</v>
@@ -803,19 +803,19 @@
         <v>45190</v>
       </c>
       <c r="B16" t="n">
-        <v>21.56999969482422</v>
+        <v>21.57</v>
       </c>
       <c r="C16" t="n">
-        <v>22.20000076293945</v>
+        <v>22.2</v>
       </c>
       <c r="D16" t="n">
-        <v>21.40999984741211</v>
+        <v>21.41</v>
       </c>
       <c r="E16" t="n">
-        <v>21.93000030517578</v>
+        <v>21.93</v>
       </c>
       <c r="F16" t="n">
-        <v>21.93000030517578</v>
+        <v>21.93</v>
       </c>
       <c r="G16" t="n">
         <v>145624281</v>
@@ -826,19 +826,19 @@
         <v>45191</v>
       </c>
       <c r="B17" t="n">
-        <v>21.65999984741211</v>
+        <v>21.66</v>
       </c>
       <c r="C17" t="n">
-        <v>22.35000038146973</v>
+        <v>22.35</v>
       </c>
       <c r="D17" t="n">
-        <v>20.8799991607666</v>
+        <v>20.88</v>
       </c>
       <c r="E17" t="n">
-        <v>21.8799991607666</v>
+        <v>21.88</v>
       </c>
       <c r="F17" t="n">
-        <v>21.8799991607666</v>
+        <v>21.88</v>
       </c>
       <c r="G17" t="n">
         <v>167707015</v>
@@ -849,19 +849,19 @@
         <v>45194</v>
       </c>
       <c r="B18" t="n">
-        <v>21.70000076293945</v>
+        <v>21.7</v>
       </c>
       <c r="C18" t="n">
         <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>21.70000076293945</v>
+        <v>21.7</v>
       </c>
       <c r="E18" t="n">
-        <v>22.76000022888184</v>
+        <v>22.76</v>
       </c>
       <c r="F18" t="n">
-        <v>22.76000022888184</v>
+        <v>22.76</v>
       </c>
       <c r="G18" t="n">
         <v>249044547</v>
@@ -872,19 +872,19 @@
         <v>45195</v>
       </c>
       <c r="B19" t="n">
-        <v>22.07999992370605</v>
+        <v>22.08</v>
       </c>
       <c r="C19" t="n">
-        <v>24.78000068664551</v>
+        <v>24.78</v>
       </c>
       <c r="D19" t="n">
-        <v>21.39999961853027</v>
+        <v>21.4</v>
       </c>
       <c r="E19" t="n">
-        <v>23.70999908447266</v>
+        <v>23.71</v>
       </c>
       <c r="F19" t="n">
-        <v>23.70999908447266</v>
+        <v>23.71</v>
       </c>
       <c r="G19" t="n">
         <v>243211228</v>
@@ -895,19 +895,19 @@
         <v>45196</v>
       </c>
       <c r="B20" t="n">
-        <v>23.23999977111816</v>
+        <v>23.24</v>
       </c>
       <c r="C20" t="n">
-        <v>23.76000022888184</v>
+        <v>23.76</v>
       </c>
       <c r="D20" t="n">
-        <v>22.85000038146973</v>
+        <v>22.85</v>
       </c>
       <c r="E20" t="n">
-        <v>23.29999923706055</v>
+        <v>23.3</v>
       </c>
       <c r="F20" t="n">
-        <v>23.29999923706055</v>
+        <v>23.3</v>
       </c>
       <c r="G20" t="n">
         <v>130819978</v>
@@ -918,13 +918,13 @@
         <v>45197</v>
       </c>
       <c r="B21" t="n">
-        <v>23.46999931335449</v>
+        <v>23.47</v>
       </c>
       <c r="C21" t="n">
         <v>24.5</v>
       </c>
       <c r="D21" t="n">
-        <v>22.03000068664551</v>
+        <v>22.03</v>
       </c>
       <c r="E21" t="n">
         <v>23.5</v>
@@ -941,19 +941,19 @@
         <v>45208</v>
       </c>
       <c r="B22" t="n">
-        <v>22.79999923706055</v>
+        <v>22.8</v>
       </c>
       <c r="C22" t="n">
-        <v>23.88999938964844</v>
+        <v>23.89</v>
       </c>
       <c r="D22" t="n">
-        <v>22.60000038146973</v>
+        <v>22.6</v>
       </c>
       <c r="E22" t="n">
-        <v>22.79000091552734</v>
+        <v>22.79</v>
       </c>
       <c r="F22" t="n">
-        <v>22.79000091552734</v>
+        <v>22.79</v>
       </c>
       <c r="G22" t="n">
         <v>124726142</v>
@@ -967,16 +967,16 @@
         <v>22.5</v>
       </c>
       <c r="C23" t="n">
-        <v>24.98999977111816</v>
+        <v>24.99</v>
       </c>
       <c r="D23" t="n">
         <v>22.5</v>
       </c>
       <c r="E23" t="n">
-        <v>23.8700008392334</v>
+        <v>23.87</v>
       </c>
       <c r="F23" t="n">
-        <v>23.8700008392334</v>
+        <v>23.87</v>
       </c>
       <c r="G23" t="n">
         <v>197832293</v>
@@ -987,19 +987,19 @@
         <v>45210</v>
       </c>
       <c r="B24" t="n">
-        <v>24.3700008392334</v>
+        <v>24.37</v>
       </c>
       <c r="C24" t="n">
-        <v>26.26000022888184</v>
+        <v>26.26</v>
       </c>
       <c r="D24" t="n">
-        <v>24.3700008392334</v>
+        <v>24.37</v>
       </c>
       <c r="E24" t="n">
-        <v>26.26000022888184</v>
+        <v>26.26</v>
       </c>
       <c r="F24" t="n">
-        <v>26.26000022888184</v>
+        <v>26.26</v>
       </c>
       <c r="G24" t="n">
         <v>72801000</v>
@@ -1010,19 +1010,19 @@
         <v>45211</v>
       </c>
       <c r="B25" t="n">
-        <v>28.88999938964844</v>
+        <v>28.89</v>
       </c>
       <c r="C25" t="n">
-        <v>28.88999938964844</v>
+        <v>28.89</v>
       </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>25.10000038146973</v>
+        <v>25.1</v>
       </c>
       <c r="F25" t="n">
-        <v>25.10000038146973</v>
+        <v>25.1</v>
       </c>
       <c r="G25" t="n">
         <v>246997949</v>
@@ -1039,13 +1039,13 @@
         <v>27.25</v>
       </c>
       <c r="D26" t="n">
-        <v>24.89999961853027</v>
+        <v>24.9</v>
       </c>
       <c r="E26" t="n">
-        <v>26.70999908447266</v>
+        <v>26.71</v>
       </c>
       <c r="F26" t="n">
-        <v>26.70999908447266</v>
+        <v>26.71</v>
       </c>
       <c r="G26" t="n">
         <v>218943804</v>
@@ -1056,19 +1056,19 @@
         <v>45215</v>
       </c>
       <c r="B27" t="n">
-        <v>26.04999923706055</v>
+        <v>26.05</v>
       </c>
       <c r="C27" t="n">
-        <v>26.38999938964844</v>
+        <v>26.39</v>
       </c>
       <c r="D27" t="n">
         <v>25.5</v>
       </c>
       <c r="E27" t="n">
-        <v>25.59000015258789</v>
+        <v>25.59</v>
       </c>
       <c r="F27" t="n">
-        <v>25.59000015258789</v>
+        <v>25.59</v>
       </c>
       <c r="G27" t="n">
         <v>126154063</v>
@@ -1079,19 +1079,19 @@
         <v>45216</v>
       </c>
       <c r="B28" t="n">
-        <v>24.79999923706055</v>
+        <v>24.8</v>
       </c>
       <c r="C28" t="n">
-        <v>27.56999969482422</v>
+        <v>27.57</v>
       </c>
       <c r="D28" t="n">
-        <v>24.64999961853027</v>
+        <v>24.65</v>
       </c>
       <c r="E28" t="n">
-        <v>26.68000030517578</v>
+        <v>26.68</v>
       </c>
       <c r="F28" t="n">
-        <v>26.68000030517578</v>
+        <v>26.68</v>
       </c>
       <c r="G28" t="n">
         <v>174990382</v>
@@ -1105,16 +1105,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>28.60000038146973</v>
+        <v>28.6</v>
       </c>
       <c r="D29" t="n">
-        <v>25.72999954223633</v>
+        <v>25.73</v>
       </c>
       <c r="E29" t="n">
-        <v>26.51000022888184</v>
+        <v>26.51</v>
       </c>
       <c r="F29" t="n">
-        <v>26.51000022888184</v>
+        <v>26.51</v>
       </c>
       <c r="G29" t="n">
         <v>176011794</v>
@@ -1125,19 +1125,19 @@
         <v>45218</v>
       </c>
       <c r="B30" t="n">
-        <v>26.31999969482422</v>
+        <v>26.32</v>
       </c>
       <c r="C30" t="n">
         <v>28.5</v>
       </c>
       <c r="D30" t="n">
-        <v>26.31999969482422</v>
+        <v>26.32</v>
       </c>
       <c r="E30" t="n">
-        <v>27.04999923706055</v>
+        <v>27.05</v>
       </c>
       <c r="F30" t="n">
-        <v>27.04999923706055</v>
+        <v>27.05</v>
       </c>
       <c r="G30" t="n">
         <v>197367710</v>
@@ -1151,16 +1151,16 @@
         <v>26</v>
       </c>
       <c r="C31" t="n">
-        <v>26.06999969482422</v>
+        <v>26.07</v>
       </c>
       <c r="D31" t="n">
-        <v>24.35000038146973</v>
+        <v>24.35</v>
       </c>
       <c r="E31" t="n">
-        <v>24.35000038146973</v>
+        <v>24.35</v>
       </c>
       <c r="F31" t="n">
-        <v>24.35000038146973</v>
+        <v>24.35</v>
       </c>
       <c r="G31" t="n">
         <v>98771021</v>
@@ -1174,16 +1174,16 @@
         <v>22.5</v>
       </c>
       <c r="C32" t="n">
-        <v>23.1299991607666</v>
+        <v>23.13</v>
       </c>
       <c r="D32" t="n">
-        <v>21.92000007629395</v>
+        <v>21.92</v>
       </c>
       <c r="E32" t="n">
-        <v>21.92000007629395</v>
+        <v>21.92</v>
       </c>
       <c r="F32" t="n">
-        <v>21.92000007629395</v>
+        <v>21.92</v>
       </c>
       <c r="G32" t="n">
         <v>154545194</v>
@@ -1194,19 +1194,19 @@
         <v>45223</v>
       </c>
       <c r="B33" t="n">
-        <v>21.82999992370605</v>
+        <v>21.83</v>
       </c>
       <c r="C33" t="n">
-        <v>23.22999954223633</v>
+        <v>23.23</v>
       </c>
       <c r="D33" t="n">
         <v>21.5</v>
       </c>
       <c r="E33" t="n">
-        <v>22.27000045776367</v>
+        <v>22.27</v>
       </c>
       <c r="F33" t="n">
-        <v>22.27000045776367</v>
+        <v>22.27</v>
       </c>
       <c r="G33" t="n">
         <v>136369228</v>
@@ -1217,19 +1217,19 @@
         <v>45224</v>
       </c>
       <c r="B34" t="n">
-        <v>22.29999923706055</v>
+        <v>22.3</v>
       </c>
       <c r="C34" t="n">
-        <v>22.79999923706055</v>
+        <v>22.8</v>
       </c>
       <c r="D34" t="n">
-        <v>21.45000076293945</v>
+        <v>21.45</v>
       </c>
       <c r="E34" t="n">
-        <v>22.36000061035156</v>
+        <v>22.36</v>
       </c>
       <c r="F34" t="n">
-        <v>22.36000061035156</v>
+        <v>22.36</v>
       </c>
       <c r="G34" t="n">
         <v>150577198</v>
@@ -1240,19 +1240,19 @@
         <v>45225</v>
       </c>
       <c r="B35" t="n">
-        <v>21.77000045776367</v>
+        <v>21.77</v>
       </c>
       <c r="C35" t="n">
-        <v>22.79999923706055</v>
+        <v>22.8</v>
       </c>
       <c r="D35" t="n">
-        <v>21.31999969482422</v>
+        <v>21.32</v>
       </c>
       <c r="E35" t="n">
-        <v>21.54000091552734</v>
+        <v>21.54</v>
       </c>
       <c r="F35" t="n">
-        <v>21.54000091552734</v>
+        <v>21.54</v>
       </c>
       <c r="G35" t="n">
         <v>126044545</v>
@@ -1266,16 +1266,16 @@
         <v>22.5</v>
       </c>
       <c r="C36" t="n">
-        <v>23.69000053405762</v>
+        <v>23.69</v>
       </c>
       <c r="D36" t="n">
-        <v>21.90999984741211</v>
+        <v>21.91</v>
       </c>
       <c r="E36" t="n">
-        <v>23.69000053405762</v>
+        <v>23.69</v>
       </c>
       <c r="F36" t="n">
-        <v>23.69000053405762</v>
+        <v>23.69</v>
       </c>
       <c r="G36" t="n">
         <v>169554694</v>
@@ -1286,19 +1286,19 @@
         <v>45229</v>
       </c>
       <c r="B37" t="n">
-        <v>23.69000053405762</v>
+        <v>23.69</v>
       </c>
       <c r="C37" t="n">
-        <v>23.8799991607666</v>
+        <v>23.88</v>
       </c>
       <c r="D37" t="n">
-        <v>22.53000068664551</v>
+        <v>22.53</v>
       </c>
       <c r="E37" t="n">
-        <v>23.32999992370605</v>
+        <v>23.33</v>
       </c>
       <c r="F37" t="n">
-        <v>23.32999992370605</v>
+        <v>23.33</v>
       </c>
       <c r="G37" t="n">
         <v>164630195</v>
@@ -1309,19 +1309,19 @@
         <v>45230</v>
       </c>
       <c r="B38" t="n">
-        <v>22.96999931335449</v>
+        <v>22.97</v>
       </c>
       <c r="C38" t="n">
-        <v>24.14999961853027</v>
+        <v>24.15</v>
       </c>
       <c r="D38" t="n">
-        <v>22.10000038146973</v>
+        <v>22.1</v>
       </c>
       <c r="E38" t="n">
-        <v>23.95000076293945</v>
+        <v>23.95</v>
       </c>
       <c r="F38" t="n">
-        <v>23.95000076293945</v>
+        <v>23.95</v>
       </c>
       <c r="G38" t="n">
         <v>176362677</v>
@@ -1332,19 +1332,19 @@
         <v>45231</v>
       </c>
       <c r="B39" t="n">
-        <v>23.36000061035156</v>
+        <v>23.36</v>
       </c>
       <c r="C39" t="n">
-        <v>23.38999938964844</v>
+        <v>23.39</v>
       </c>
       <c r="D39" t="n">
-        <v>22.35000038146973</v>
+        <v>22.35</v>
       </c>
       <c r="E39" t="n">
-        <v>22.46999931335449</v>
+        <v>22.47</v>
       </c>
       <c r="F39" t="n">
-        <v>22.46999931335449</v>
+        <v>22.47</v>
       </c>
       <c r="G39" t="n">
         <v>105740094</v>
@@ -1355,19 +1355,19 @@
         <v>45232</v>
       </c>
       <c r="B40" t="n">
-        <v>22.45000076293945</v>
+        <v>22.45</v>
       </c>
       <c r="C40" t="n">
-        <v>23.09000015258789</v>
+        <v>23.09</v>
       </c>
       <c r="D40" t="n">
-        <v>21.80999946594238</v>
+        <v>21.81</v>
       </c>
       <c r="E40" t="n">
-        <v>22.23999977111816</v>
+        <v>22.24</v>
       </c>
       <c r="F40" t="n">
-        <v>22.23999977111816</v>
+        <v>22.24</v>
       </c>
       <c r="G40" t="n">
         <v>88552225</v>
@@ -1378,19 +1378,19 @@
         <v>45233</v>
       </c>
       <c r="B41" t="n">
-        <v>22.09000015258789</v>
+        <v>22.09</v>
       </c>
       <c r="C41" t="n">
-        <v>22.54999923706055</v>
+        <v>22.55</v>
       </c>
       <c r="D41" t="n">
-        <v>21.65999984741211</v>
+        <v>21.66</v>
       </c>
       <c r="E41" t="n">
-        <v>22.29999923706055</v>
+        <v>22.3</v>
       </c>
       <c r="F41" t="n">
-        <v>22.29999923706055</v>
+        <v>22.3</v>
       </c>
       <c r="G41" t="n">
         <v>79458672</v>
@@ -1401,19 +1401,19 @@
         <v>45236</v>
       </c>
       <c r="B42" t="n">
-        <v>22.3799991607666</v>
+        <v>22.38</v>
       </c>
       <c r="C42" t="n">
-        <v>22.97999954223633</v>
+        <v>22.98</v>
       </c>
       <c r="D42" t="n">
-        <v>22.09000015258789</v>
+        <v>22.09</v>
       </c>
       <c r="E42" t="n">
-        <v>22.68000030517578</v>
+        <v>22.68</v>
       </c>
       <c r="F42" t="n">
-        <v>22.68000030517578</v>
+        <v>22.68</v>
       </c>
       <c r="G42" t="n">
         <v>103560095</v>
@@ -1424,19 +1424,19 @@
         <v>45237</v>
       </c>
       <c r="B43" t="n">
-        <v>23.10000038146973</v>
+        <v>23.1</v>
       </c>
       <c r="C43" t="n">
-        <v>24.29000091552734</v>
+        <v>24.29</v>
       </c>
       <c r="D43" t="n">
-        <v>22.79999923706055</v>
+        <v>22.8</v>
       </c>
       <c r="E43" t="n">
-        <v>23.65999984741211</v>
+        <v>23.66</v>
       </c>
       <c r="F43" t="n">
-        <v>23.65999984741211</v>
+        <v>23.66</v>
       </c>
       <c r="G43" t="n">
         <v>180058793</v>
@@ -1447,19 +1447,19 @@
         <v>45238</v>
       </c>
       <c r="B44" t="n">
-        <v>23.40999984741211</v>
+        <v>23.41</v>
       </c>
       <c r="C44" t="n">
-        <v>24.93000030517578</v>
+        <v>24.93</v>
       </c>
       <c r="D44" t="n">
-        <v>23.39999961853027</v>
+        <v>23.4</v>
       </c>
       <c r="E44" t="n">
-        <v>24.51000022888184</v>
+        <v>24.51</v>
       </c>
       <c r="F44" t="n">
-        <v>24.51000022888184</v>
+        <v>24.51</v>
       </c>
       <c r="G44" t="n">
         <v>176291450</v>
@@ -1470,19 +1470,19 @@
         <v>45239</v>
       </c>
       <c r="B45" t="n">
-        <v>24.18000030517578</v>
+        <v>24.18</v>
       </c>
       <c r="C45" t="n">
-        <v>25.52000045776367</v>
+        <v>25.52</v>
       </c>
       <c r="D45" t="n">
-        <v>23.77000045776367</v>
+        <v>23.77</v>
       </c>
       <c r="E45" t="n">
-        <v>24.22999954223633</v>
+        <v>24.23</v>
       </c>
       <c r="F45" t="n">
-        <v>24.22999954223633</v>
+        <v>24.23</v>
       </c>
       <c r="G45" t="n">
         <v>168007232</v>
@@ -1493,13 +1493,13 @@
         <v>45240</v>
       </c>
       <c r="B46" t="n">
-        <v>23.54999923706055</v>
+        <v>23.55</v>
       </c>
       <c r="C46" t="n">
-        <v>23.68000030517578</v>
+        <v>23.68</v>
       </c>
       <c r="D46" t="n">
-        <v>22.3799991607666</v>
+        <v>22.38</v>
       </c>
       <c r="E46" t="n">
         <v>22.5</v>
@@ -1516,19 +1516,19 @@
         <v>45243</v>
       </c>
       <c r="B47" t="n">
-        <v>23.52000045776367</v>
+        <v>23.52</v>
       </c>
       <c r="C47" t="n">
-        <v>23.95000076293945</v>
+        <v>23.95</v>
       </c>
       <c r="D47" t="n">
-        <v>23.03000068664551</v>
+        <v>23.03</v>
       </c>
       <c r="E47" t="n">
-        <v>23.14999961853027</v>
+        <v>23.15</v>
       </c>
       <c r="F47" t="n">
-        <v>23.14999961853027</v>
+        <v>23.15</v>
       </c>
       <c r="G47" t="n">
         <v>118218864</v>
@@ -1539,19 +1539,19 @@
         <v>45244</v>
       </c>
       <c r="B48" t="n">
-        <v>22.72999954223633</v>
+        <v>22.73</v>
       </c>
       <c r="C48" t="n">
-        <v>24.29999923706055</v>
+        <v>24.3</v>
       </c>
       <c r="D48" t="n">
-        <v>22.70999908447266</v>
+        <v>22.71</v>
       </c>
       <c r="E48" t="n">
-        <v>23.97999954223633</v>
+        <v>23.98</v>
       </c>
       <c r="F48" t="n">
-        <v>23.97999954223633</v>
+        <v>23.98</v>
       </c>
       <c r="G48" t="n">
         <v>132170277</v>
@@ -1562,19 +1562,19 @@
         <v>45245</v>
       </c>
       <c r="B49" t="n">
-        <v>23.76000022888184</v>
+        <v>23.76</v>
       </c>
       <c r="C49" t="n">
-        <v>23.8700008392334</v>
+        <v>23.87</v>
       </c>
       <c r="D49" t="n">
-        <v>23.19000053405762</v>
+        <v>23.19</v>
       </c>
       <c r="E49" t="n">
-        <v>23.3700008392334</v>
+        <v>23.37</v>
       </c>
       <c r="F49" t="n">
-        <v>23.3700008392334</v>
+        <v>23.37</v>
       </c>
       <c r="G49" t="n">
         <v>97112231</v>
@@ -1585,19 +1585,19 @@
         <v>45246</v>
       </c>
       <c r="B50" t="n">
-        <v>23.07999992370605</v>
+        <v>23.08</v>
       </c>
       <c r="C50" t="n">
-        <v>25.10000038146973</v>
+        <v>25.1</v>
       </c>
       <c r="D50" t="n">
-        <v>22.79999923706055</v>
+        <v>22.8</v>
       </c>
       <c r="E50" t="n">
-        <v>24.53000068664551</v>
+        <v>24.53</v>
       </c>
       <c r="F50" t="n">
-        <v>24.53000068664551</v>
+        <v>24.53</v>
       </c>
       <c r="G50" t="n">
         <v>185110486</v>
@@ -1608,19 +1608,19 @@
         <v>45247</v>
       </c>
       <c r="B51" t="n">
-        <v>24.28000068664551</v>
+        <v>24.28</v>
       </c>
       <c r="C51" t="n">
-        <v>24.59000015258789</v>
+        <v>24.59</v>
       </c>
       <c r="D51" t="n">
-        <v>23.70000076293945</v>
+        <v>23.7</v>
       </c>
       <c r="E51" t="n">
-        <v>23.96999931335449</v>
+        <v>23.97</v>
       </c>
       <c r="F51" t="n">
-        <v>23.96999931335449</v>
+        <v>23.97</v>
       </c>
       <c r="G51" t="n">
         <v>108282560</v>
@@ -1631,19 +1631,19 @@
         <v>45250</v>
       </c>
       <c r="B52" t="n">
-        <v>23.80999946594238</v>
+        <v>23.81</v>
       </c>
       <c r="C52" t="n">
-        <v>24.3799991607666</v>
+        <v>24.38</v>
       </c>
       <c r="D52" t="n">
-        <v>23.60000038146973</v>
+        <v>23.6</v>
       </c>
       <c r="E52" t="n">
-        <v>23.86000061035156</v>
+        <v>23.86</v>
       </c>
       <c r="F52" t="n">
-        <v>23.86000061035156</v>
+        <v>23.86</v>
       </c>
       <c r="G52" t="n">
         <v>78759849</v>
@@ -1654,19 +1654,19 @@
         <v>45251</v>
       </c>
       <c r="B53" t="n">
-        <v>23.72999954223633</v>
+        <v>23.73</v>
       </c>
       <c r="C53" t="n">
-        <v>24.32999992370605</v>
+        <v>24.33</v>
       </c>
       <c r="D53" t="n">
-        <v>23.13999938964844</v>
+        <v>23.14</v>
       </c>
       <c r="E53" t="n">
-        <v>23.19000053405762</v>
+        <v>23.19</v>
       </c>
       <c r="F53" t="n">
-        <v>23.19000053405762</v>
+        <v>23.19</v>
       </c>
       <c r="G53" t="n">
         <v>82534623</v>
@@ -1677,19 +1677,19 @@
         <v>45252</v>
       </c>
       <c r="B54" t="n">
-        <v>22.79999923706055</v>
+        <v>22.8</v>
       </c>
       <c r="C54" t="n">
-        <v>23.47999954223633</v>
+        <v>23.48</v>
       </c>
       <c r="D54" t="n">
-        <v>22.31999969482422</v>
+        <v>22.32</v>
       </c>
       <c r="E54" t="n">
-        <v>22.3700008392334</v>
+        <v>22.37</v>
       </c>
       <c r="F54" t="n">
-        <v>22.3700008392334</v>
+        <v>22.37</v>
       </c>
       <c r="G54" t="n">
         <v>75438378</v>
@@ -1703,16 +1703,16 @@
         <v>22.25</v>
       </c>
       <c r="C55" t="n">
-        <v>22.98999977111816</v>
+        <v>22.99</v>
       </c>
       <c r="D55" t="n">
-        <v>22.09000015258789</v>
+        <v>22.09</v>
       </c>
       <c r="E55" t="n">
-        <v>22.72999954223633</v>
+        <v>22.73</v>
       </c>
       <c r="F55" t="n">
-        <v>22.72999954223633</v>
+        <v>22.73</v>
       </c>
       <c r="G55" t="n">
         <v>58225683</v>
@@ -1723,19 +1723,19 @@
         <v>45254</v>
       </c>
       <c r="B56" t="n">
-        <v>22.52000045776367</v>
+        <v>22.52</v>
       </c>
       <c r="C56" t="n">
-        <v>23.77000045776367</v>
+        <v>23.77</v>
       </c>
       <c r="D56" t="n">
-        <v>22.32999992370605</v>
+        <v>22.33</v>
       </c>
       <c r="E56" t="n">
-        <v>23.40999984741211</v>
+        <v>23.41</v>
       </c>
       <c r="F56" t="n">
-        <v>23.40999984741211</v>
+        <v>23.41</v>
       </c>
       <c r="G56" t="n">
         <v>110917078</v>
@@ -1746,22 +1746,68 @@
         <v>45257</v>
       </c>
       <c r="B57" t="n">
-        <v>23.06999969482422</v>
+        <v>23.07</v>
       </c>
       <c r="C57" t="n">
-        <v>25.6299991607666</v>
+        <v>25.63</v>
       </c>
       <c r="D57" t="n">
-        <v>22.94000053405762</v>
+        <v>22.94</v>
       </c>
       <c r="E57" t="n">
-        <v>25.30999946594238</v>
+        <v>25.31</v>
       </c>
       <c r="F57" t="n">
-        <v>25.30999946594238</v>
+        <v>25.31</v>
       </c>
       <c r="G57" t="n">
         <v>201074246</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B58" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="C58" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="D58" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="E58" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="F58" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="G58" t="n">
+        <v>139510015</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B59" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="C59" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="D59" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="E59" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="F59" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="G59" t="n">
+        <v>73946498</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/600895.ss.xlsx
+++ b/Assets/600895.ss.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,6 +1810,52 @@
         <v>73946498</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B60" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C60" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="E60" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="F60" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="G60" t="n">
+        <v>85976711</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B61" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="D61" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="E61" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="F61" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="G61" t="n">
+        <v>53943381</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
